--- a/doc/coef_values_v2_human_or_animal.xlsx
+++ b/doc/coef_values_v2_human_or_animal.xlsx
@@ -83,28 +83,28 @@
     <t>Zero-Inflated (Logistic)</t>
   </si>
   <si>
-    <t>GDP (dollars per capita)</t>
-  </si>
-  <si>
-    <t>ProMed Mentions (per capita)</t>
-  </si>
-  <si>
-    <t>Migrant Population (per capita)</t>
+    <t>ln(GDP [dollars per capita])</t>
+  </si>
+  <si>
+    <t>ln(ProMed Mentions [per capita])</t>
+  </si>
+  <si>
+    <t>ln(Migrant Population [per capita])</t>
   </si>
   <si>
     <t>Livestock AB Consumption:GDP</t>
   </si>
   <si>
-    <t>Tourism - Inbound (per capita)</t>
+    <t>ln(Tourism - Inbound [per capita])</t>
   </si>
   <si>
     <t>Human AB Consumption (DDD)</t>
   </si>
   <si>
-    <t>AB Exports (dollars per capita)</t>
-  </si>
-  <si>
-    <t>Publication Bias Index (per capita)</t>
+    <t>ln(AB Exports [dollars per capita])</t>
+  </si>
+  <si>
+    <t>ln(Publication Bias Index [per capita])</t>
   </si>
   <si>
     <t>Health Expenditure (% GDP)</t>
@@ -113,10 +113,10 @@
     <t>English Spoken (yes/no)</t>
   </si>
   <si>
-    <t>Livestock AB Consumption (kg per capita)</t>
-  </si>
-  <si>
-    <t>Population</t>
+    <t>Livestock AB Consumption [kg per capita)</t>
+  </si>
+  <si>
+    <t>ln(Population)</t>
   </si>
   <si>
     <t>4 (1.3-9.4)*</t>

--- a/doc/coef_values_v2_human_or_animal.xlsx
+++ b/doc/coef_values_v2_human_or_animal.xlsx
@@ -83,28 +83,28 @@
     <t>Zero-Inflated (Logistic)</t>
   </si>
   <si>
-    <t>ln(GDP [dollars per capita])</t>
-  </si>
-  <si>
-    <t>ln(ProMed Mentions [per capita])</t>
-  </si>
-  <si>
-    <t>ln(Migrant Population [per capita])</t>
+    <t>ln(GDP [dollars per cap.])</t>
+  </si>
+  <si>
+    <t>ln(ProMed Mentions [per cap.])</t>
+  </si>
+  <si>
+    <t>ln(Migrant Population [per cap.])</t>
   </si>
   <si>
     <t>Livestock AB Consumption:GDP</t>
   </si>
   <si>
-    <t>ln(Tourism - Inbound [per capita])</t>
+    <t>ln(Tourism - Inbound [per cap.])</t>
   </si>
   <si>
     <t>Human AB Consumption (DDD)</t>
   </si>
   <si>
-    <t>ln(AB Exports [dollars per capita])</t>
-  </si>
-  <si>
-    <t>ln(Publication Bias Index [per capita])</t>
+    <t>ln(AB Exports [dollars per cap.])</t>
+  </si>
+  <si>
+    <t>ln(Publication Bias Index [per cap.])</t>
   </si>
   <si>
     <t>Health Expenditure (% GDP)</t>
@@ -113,7 +113,7 @@
     <t>English Spoken (yes/no)</t>
   </si>
   <si>
-    <t>Livestock AB Consumption [kg per capita)</t>
+    <t>Livestock AB Consumption (kg per cap.)</t>
   </si>
   <si>
     <t>ln(Population)</t>

--- a/doc/coef_values_v2_human_or_animal.xlsx
+++ b/doc/coef_values_v2_human_or_animal.xlsx
@@ -83,28 +83,28 @@
     <t>Zero-Inflated (Logistic)</t>
   </si>
   <si>
-    <t>ln(GDP [dollars per cap.])</t>
-  </si>
-  <si>
-    <t>ln(ProMed Mentions [per cap.])</t>
-  </si>
-  <si>
-    <t>ln(Migrant Population [per cap.])</t>
-  </si>
-  <si>
-    <t>Livestock AB Consumption:GDP</t>
-  </si>
-  <si>
-    <t>ln(Tourism - Inbound [per cap.])</t>
+    <t>GDP (log dollars per cap)</t>
+  </si>
+  <si>
+    <t>ProMed Mentions (log per cap)</t>
+  </si>
+  <si>
+    <t>Migrant Population (log per cap)</t>
+  </si>
+  <si>
+    <t>Livestock AB Consumption &amp; GDP Interaction</t>
+  </si>
+  <si>
+    <t>Tourism - Inbound (log per cap)</t>
   </si>
   <si>
     <t>Human AB Consumption (DDD)</t>
   </si>
   <si>
-    <t>ln(AB Exports [dollars per cap.])</t>
-  </si>
-  <si>
-    <t>ln(Publication Bias Index [per cap.])</t>
+    <t>AB Exports (log dollars per cap)</t>
+  </si>
+  <si>
+    <t>Publication Bias Index (log per cap)</t>
   </si>
   <si>
     <t>Health Expenditure (% GDP)</t>
@@ -113,10 +113,10 @@
     <t>English Spoken (yes/no)</t>
   </si>
   <si>
-    <t>Livestock AB Consumption (kg per cap.)</t>
-  </si>
-  <si>
-    <t>ln(Population)</t>
+    <t>Livestock AB Consumption (log kg per cap)</t>
+  </si>
+  <si>
+    <t>Population (log)</t>
   </si>
   <si>
     <t>4 (1.3-9.4)*</t>
